--- a/Ex 1/0 Program Files/0 Stim/stim blocks 2.xlsx
+++ b/Ex 1/0 Program Files/0 Stim/stim blocks 2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BAF267-D95E-42FF-96E5-BBDC6B5088F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151A67CC-13DA-484F-B097-7E3F3E8F6538}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11280" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparing Blocks" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4066" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4057" uniqueCount="613">
   <si>
     <t>Cue</t>
   </si>
@@ -1056,24 +1055,12 @@
     <t>Shell</t>
   </si>
   <si>
-    <t>Block</t>
-  </si>
-  <si>
     <t>Choice</t>
   </si>
   <si>
     <t>Decision</t>
   </si>
   <si>
-    <t>Cue_A</t>
-  </si>
-  <si>
-    <t>Target_A</t>
-  </si>
-  <si>
-    <t>Response_A</t>
-  </si>
-  <si>
     <t>Delinquent - ?</t>
   </si>
   <si>
@@ -1317,15 +1304,6 @@
     <t>Extension</t>
   </si>
   <si>
-    <t>Cue_B</t>
-  </si>
-  <si>
-    <t>Target_B</t>
-  </si>
-  <si>
-    <t>Response_B</t>
-  </si>
-  <si>
     <t>Clue - ?</t>
   </si>
   <si>
@@ -1554,15 +1532,6 @@
     <t>Main - ?</t>
   </si>
   <si>
-    <t>Cue_C</t>
-  </si>
-  <si>
-    <t>Target_C</t>
-  </si>
-  <si>
-    <t>Response_C</t>
-  </si>
-  <si>
     <t>Stomach - ?</t>
   </si>
   <si>
@@ -1887,13 +1856,19 @@
     <t>Scar - ?</t>
   </si>
   <si>
-    <t>Cue_D</t>
-  </si>
-  <si>
-    <t>Target_D</t>
-  </si>
-  <si>
-    <t>Response_D</t>
+    <t>Extension - ?</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -2830,15 +2805,15 @@
       <selection activeCell="C45" sqref="C45:D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="3"/>
-    <col min="2" max="2" width="8.85546875" style="2"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="2"/>
-    <col min="9" max="9" width="8.85546875" style="3"/>
-    <col min="17" max="17" width="8.85546875" style="3"/>
-    <col min="25" max="25" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="2"/>
+    <col min="9" max="9" width="8.88671875" style="3"/>
+    <col min="17" max="17" width="8.88671875" style="3"/>
+    <col min="25" max="25" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="3" customFormat="1">
@@ -9037,7 +9012,7 @@
       <c r="AA86" s="4"/>
       <c r="AB86" s="4"/>
     </row>
-    <row r="87" spans="1:31" s="2" customFormat="1" ht="15.75">
+    <row r="87" spans="1:31" s="2" customFormat="1" ht="15.6">
       <c r="A87" s="11" t="s">
         <v>270</v>
       </c>
@@ -9275,7 +9250,7 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" spans="1:29" s="2" customFormat="1" ht="15.75">
+    <row r="97" spans="1:29" s="2" customFormat="1" ht="15.6">
       <c r="A97" s="11" t="s">
         <v>271</v>
       </c>
@@ -10212,10 +10187,10 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="2"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="2"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13068,7 +13043,7 @@
       <selection activeCell="A2" sqref="A2:B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
@@ -15957,7 +15932,7 @@
       <selection activeCell="A2" sqref="A2:B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
@@ -18828,7 +18803,7 @@
       <selection activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
@@ -21716,57 +21691,27 @@
   </sheetPr>
   <dimension ref="A1:T161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:T81"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="27"/>
+    <col min="1" max="1" width="9.109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="B1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E1" t="s">
-        <v>346</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>428</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="I1" s="27"/>
+    <row r="1" spans="1:20" s="27" customFormat="1">
+      <c r="B1" s="27" t="s">
+        <v>609</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>610</v>
+      </c>
       <c r="J1" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>507</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>508</v>
-      </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27" t="s">
-        <v>509</v>
+        <v>611</v>
       </c>
       <c r="Q1" s="27" t="s">
-        <v>618</v>
-      </c>
-      <c r="R1" s="27" t="s">
-        <v>619</v>
-      </c>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -21780,7 +21725,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>119</v>
@@ -21790,7 +21735,7 @@
       </c>
       <c r="I2" s="27"/>
       <c r="J2" s="27" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>3</v>
@@ -21799,7 +21744,7 @@
         <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>120</v>
@@ -21809,7 +21754,7 @@
       </c>
       <c r="S2" s="27"/>
       <c r="T2" s="27" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -21823,7 +21768,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>125</v>
@@ -21833,7 +21778,7 @@
       </c>
       <c r="I3" s="27"/>
       <c r="J3" s="27" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>15</v>
@@ -21842,7 +21787,7 @@
         <v>14</v>
       </c>
       <c r="O3" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>126</v>
@@ -21852,7 +21797,7 @@
       </c>
       <c r="S3" s="27"/>
       <c r="T3" s="27" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -21866,7 +21811,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>127</v>
@@ -21876,7 +21821,7 @@
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="27" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="L4" s="27" t="s">
         <v>17</v>
@@ -21885,7 +21830,7 @@
         <v>16</v>
       </c>
       <c r="O4" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>25</v>
@@ -21895,7 +21840,7 @@
       </c>
       <c r="S4" s="27"/>
       <c r="T4" s="27" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -21909,7 +21854,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>128</v>
@@ -21919,7 +21864,7 @@
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="27" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="L5" s="27" t="s">
         <v>13</v>
@@ -21928,7 +21873,7 @@
         <v>12</v>
       </c>
       <c r="O5" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>4</v>
@@ -21938,7 +21883,7 @@
       </c>
       <c r="S5" s="27"/>
       <c r="T5" s="27" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -21952,7 +21897,7 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>122</v>
@@ -21962,7 +21907,7 @@
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="27" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="L6" s="27" t="s">
         <v>19</v>
@@ -21971,7 +21916,7 @@
         <v>18</v>
       </c>
       <c r="O6" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>123</v>
@@ -21981,7 +21926,7 @@
       </c>
       <c r="S6" s="27"/>
       <c r="T6" s="27" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -21995,7 +21940,7 @@
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>124</v>
@@ -22005,7 +21950,7 @@
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="L7" s="27" t="s">
         <v>21</v>
@@ -22014,7 +21959,7 @@
         <v>20</v>
       </c>
       <c r="O7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>92</v>
@@ -22024,7 +21969,7 @@
       </c>
       <c r="S7" s="27"/>
       <c r="T7" s="27" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -22038,7 +21983,7 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>121</v>
@@ -22048,7 +21993,7 @@
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="27" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="L8" s="27" t="s">
         <v>23</v>
@@ -22057,7 +22002,7 @@
         <v>22</v>
       </c>
       <c r="O8" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>29</v>
@@ -22067,7 +22012,7 @@
       </c>
       <c r="S8" s="27"/>
       <c r="T8" s="27" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -22081,7 +22026,7 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>142</v>
@@ -22091,7 +22036,7 @@
       </c>
       <c r="I9" s="27"/>
       <c r="J9" s="27" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="L9" s="27" t="s">
         <v>25</v>
@@ -22100,7 +22045,7 @@
         <v>24</v>
       </c>
       <c r="O9" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>143</v>
@@ -22110,7 +22055,7 @@
       </c>
       <c r="S9" s="27"/>
       <c r="T9" s="27" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -22124,7 +22069,7 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>146</v>
@@ -22134,7 +22079,7 @@
       </c>
       <c r="I10" s="27"/>
       <c r="J10" s="27" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="L10" s="27" t="s">
         <v>27</v>
@@ -22143,7 +22088,7 @@
         <v>26</v>
       </c>
       <c r="O10" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>147</v>
@@ -22153,7 +22098,7 @@
       </c>
       <c r="S10" s="27"/>
       <c r="T10" s="27" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -22167,7 +22112,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G11" s="27" t="s">
         <v>150</v>
@@ -22177,7 +22122,7 @@
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="27" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="L11" s="27" t="s">
         <v>29</v>
@@ -22186,7 +22131,7 @@
         <v>28</v>
       </c>
       <c r="O11" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="Q11" s="27" t="s">
         <v>151</v>
@@ -22196,7 +22141,7 @@
       </c>
       <c r="S11" s="27"/>
       <c r="T11" s="27" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -22210,7 +22155,7 @@
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>154</v>
@@ -22220,7 +22165,7 @@
       </c>
       <c r="I12" s="27"/>
       <c r="J12" s="27" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="L12" s="27" t="s">
         <v>31</v>
@@ -22229,7 +22174,7 @@
         <v>30</v>
       </c>
       <c r="O12" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>134</v>
@@ -22239,7 +22184,7 @@
       </c>
       <c r="S12" s="27"/>
       <c r="T12" s="27" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -22253,7 +22198,7 @@
         <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>157</v>
@@ -22263,7 +22208,7 @@
       </c>
       <c r="I13" s="27"/>
       <c r="J13" s="27" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="L13" s="27" t="s">
         <v>33</v>
@@ -22272,7 +22217,7 @@
         <v>32</v>
       </c>
       <c r="O13" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>158</v>
@@ -22282,7 +22227,7 @@
       </c>
       <c r="S13" s="27"/>
       <c r="T13" s="27" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -22296,7 +22241,7 @@
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>161</v>
@@ -22306,7 +22251,7 @@
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="27" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="L14" s="27" t="s">
         <v>35</v>
@@ -22315,7 +22260,7 @@
         <v>34</v>
       </c>
       <c r="O14" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>162</v>
@@ -22325,7 +22270,7 @@
       </c>
       <c r="S14" s="27"/>
       <c r="T14" s="27" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -22339,7 +22284,7 @@
         <v>264</v>
       </c>
       <c r="E15" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>166</v>
@@ -22349,7 +22294,7 @@
       </c>
       <c r="I15" s="27"/>
       <c r="J15" s="27" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="L15" s="27" t="s">
         <v>264</v>
@@ -22358,7 +22303,7 @@
         <v>263</v>
       </c>
       <c r="O15" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>167</v>
@@ -22368,7 +22313,7 @@
       </c>
       <c r="S15" s="27"/>
       <c r="T15" s="27" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -22382,7 +22327,7 @@
         <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>169</v>
@@ -22392,7 +22337,7 @@
       </c>
       <c r="I16" s="27"/>
       <c r="J16" s="27" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="L16" s="27" t="s">
         <v>37</v>
@@ -22401,7 +22346,7 @@
         <v>36</v>
       </c>
       <c r="O16" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>40</v>
@@ -22411,7 +22356,7 @@
       </c>
       <c r="S16" s="27"/>
       <c r="T16" s="27" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -22425,7 +22370,7 @@
         <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>170</v>
@@ -22435,7 +22380,7 @@
       </c>
       <c r="I17" s="27"/>
       <c r="J17" s="27" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="L17" s="27" t="s">
         <v>39</v>
@@ -22444,7 +22389,7 @@
         <v>38</v>
       </c>
       <c r="O17" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>171</v>
@@ -22454,7 +22399,7 @@
       </c>
       <c r="S17" s="27"/>
       <c r="T17" s="27" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -22468,7 +22413,7 @@
         <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G18" s="27" t="s">
         <v>174</v>
@@ -22478,7 +22423,7 @@
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="27" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="L18" s="27" t="s">
         <v>54</v>
@@ -22487,7 +22432,7 @@
         <v>53</v>
       </c>
       <c r="O18" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="Q18" s="27" t="s">
         <v>175</v>
@@ -22497,7 +22442,7 @@
       </c>
       <c r="S18" s="27"/>
       <c r="T18" s="27" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -22511,7 +22456,7 @@
         <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>177</v>
@@ -22521,7 +22466,7 @@
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="27" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="L19" s="27" t="s">
         <v>42</v>
@@ -22530,7 +22475,7 @@
         <v>41</v>
       </c>
       <c r="O19" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>178</v>
@@ -22540,7 +22485,7 @@
       </c>
       <c r="S19" s="27"/>
       <c r="T19" s="27" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -22554,7 +22499,7 @@
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>182</v>
@@ -22564,7 +22509,7 @@
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="27" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="L20" s="27" t="s">
         <v>44</v>
@@ -22573,7 +22518,7 @@
         <v>43</v>
       </c>
       <c r="O20" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>23</v>
@@ -22583,7 +22528,7 @@
       </c>
       <c r="S20" s="27"/>
       <c r="T20" s="27" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -22597,7 +22542,7 @@
         <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>183</v>
@@ -22607,7 +22552,7 @@
       </c>
       <c r="I21" s="27"/>
       <c r="J21" s="27" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="L21" s="27" t="s">
         <v>46</v>
@@ -22616,7 +22561,7 @@
         <v>45</v>
       </c>
       <c r="O21" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>184</v>
@@ -22626,7 +22571,7 @@
       </c>
       <c r="S21" s="27"/>
       <c r="T21" s="27" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -22640,7 +22585,7 @@
         <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>132</v>
@@ -22650,7 +22595,7 @@
       </c>
       <c r="I22" s="27"/>
       <c r="J22" s="27" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="L22" s="27" t="s">
         <v>84</v>
@@ -22659,7 +22604,7 @@
         <v>85</v>
       </c>
       <c r="O22" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>131</v>
@@ -22669,7 +22614,7 @@
       </c>
       <c r="S22" s="27"/>
       <c r="T22" s="27" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -22683,7 +22628,7 @@
         <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G23" s="27" t="s">
         <v>134</v>
@@ -22693,7 +22638,7 @@
       </c>
       <c r="I23" s="27"/>
       <c r="J23" s="27" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="L23" s="27" t="s">
         <v>66</v>
@@ -22702,7 +22647,7 @@
         <v>67</v>
       </c>
       <c r="O23" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="Q23" s="27" t="s">
         <v>133</v>
@@ -22712,7 +22657,7 @@
       </c>
       <c r="S23" s="27"/>
       <c r="T23" s="27" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -22726,7 +22671,7 @@
         <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>3</v>
@@ -22736,7 +22681,7 @@
       </c>
       <c r="I24" s="27"/>
       <c r="J24" s="27" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="L24" s="27" t="s">
         <v>74</v>
@@ -22745,7 +22690,7 @@
         <v>75</v>
       </c>
       <c r="O24" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>135</v>
@@ -22755,7 +22700,7 @@
       </c>
       <c r="S24" s="27"/>
       <c r="T24" s="27" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -22769,7 +22714,7 @@
         <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>27</v>
@@ -22779,7 +22724,7 @@
       </c>
       <c r="I25" s="27"/>
       <c r="J25" s="27" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="L25" s="27" t="s">
         <v>70</v>
@@ -22788,7 +22733,7 @@
         <v>71</v>
       </c>
       <c r="O25" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>130</v>
@@ -22798,7 +22743,7 @@
       </c>
       <c r="S25" s="27"/>
       <c r="T25" s="27" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -22812,7 +22757,7 @@
         <v>86</v>
       </c>
       <c r="E26" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>137</v>
@@ -22822,7 +22767,7 @@
       </c>
       <c r="I26" s="27"/>
       <c r="J26" s="27" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L26" s="27" t="s">
         <v>86</v>
@@ -22831,7 +22776,7 @@
         <v>87</v>
       </c>
       <c r="O26" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>136</v>
@@ -22841,7 +22786,7 @@
       </c>
       <c r="S26" s="27"/>
       <c r="T26" s="27" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -22855,7 +22800,7 @@
         <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>139</v>
@@ -22865,7 +22810,7 @@
       </c>
       <c r="I27" s="27"/>
       <c r="J27" s="27" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="L27" s="27" t="s">
         <v>82</v>
@@ -22874,7 +22819,7 @@
         <v>83</v>
       </c>
       <c r="O27" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>138</v>
@@ -22884,7 +22829,7 @@
       </c>
       <c r="S27" s="27"/>
       <c r="T27" s="27" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -22898,7 +22843,7 @@
         <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>141</v>
@@ -22908,7 +22853,7 @@
       </c>
       <c r="I28" s="27"/>
       <c r="J28" s="27" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="L28" s="27" t="s">
         <v>80</v>
@@ -22917,7 +22862,7 @@
         <v>81</v>
       </c>
       <c r="O28" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>140</v>
@@ -22927,7 +22872,7 @@
       </c>
       <c r="S28" s="27"/>
       <c r="T28" s="27" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -22941,7 +22886,7 @@
         <v>78</v>
       </c>
       <c r="E29" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>145</v>
@@ -22951,7 +22896,7 @@
       </c>
       <c r="I29" s="27"/>
       <c r="J29" s="27" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L29" s="27" t="s">
         <v>78</v>
@@ -22960,7 +22905,7 @@
         <v>79</v>
       </c>
       <c r="O29" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>144</v>
@@ -22970,7 +22915,7 @@
       </c>
       <c r="S29" s="27"/>
       <c r="T29" s="27" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -22984,7 +22929,7 @@
         <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>149</v>
@@ -22994,7 +22939,7 @@
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="27" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="L30" s="27" t="s">
         <v>76</v>
@@ -23003,7 +22948,7 @@
         <v>77</v>
       </c>
       <c r="O30" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>148</v>
@@ -23013,7 +22958,7 @@
       </c>
       <c r="S30" s="27"/>
       <c r="T30" s="27" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -23027,7 +22972,7 @@
         <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>153</v>
@@ -23037,7 +22982,7 @@
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="27" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="L31" s="27" t="s">
         <v>68</v>
@@ -23046,7 +22991,7 @@
         <v>69</v>
       </c>
       <c r="O31" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>152</v>
@@ -23056,7 +23001,7 @@
       </c>
       <c r="S31" s="27"/>
       <c r="T31" s="27" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -23070,7 +23015,7 @@
         <v>72</v>
       </c>
       <c r="E32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>156</v>
@@ -23080,7 +23025,7 @@
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="27" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="L32" s="27" t="s">
         <v>72</v>
@@ -23089,7 +23034,7 @@
         <v>73</v>
       </c>
       <c r="O32" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>155</v>
@@ -23099,7 +23044,7 @@
       </c>
       <c r="S32" s="27"/>
       <c r="T32" s="27" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -23113,7 +23058,7 @@
         <v>64</v>
       </c>
       <c r="E33" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>160</v>
@@ -23123,7 +23068,7 @@
       </c>
       <c r="I33" s="27"/>
       <c r="J33" s="27" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L33" s="27" t="s">
         <v>64</v>
@@ -23132,7 +23077,7 @@
         <v>65</v>
       </c>
       <c r="O33" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>159</v>
@@ -23142,7 +23087,7 @@
       </c>
       <c r="S33" s="27"/>
       <c r="T33" s="27" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -23156,7 +23101,7 @@
         <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>164</v>
@@ -23166,7 +23111,7 @@
       </c>
       <c r="I34" s="27"/>
       <c r="J34" s="27" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="L34" s="27" t="s">
         <v>62</v>
@@ -23175,7 +23120,7 @@
         <v>63</v>
       </c>
       <c r="O34" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>163</v>
@@ -23185,7 +23130,7 @@
       </c>
       <c r="S34" s="27"/>
       <c r="T34" s="27" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -23199,7 +23144,7 @@
         <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>50</v>
@@ -23209,7 +23154,7 @@
       </c>
       <c r="I35" s="27"/>
       <c r="J35" s="27" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L35" s="27" t="s">
         <v>60</v>
@@ -23218,7 +23163,7 @@
         <v>61</v>
       </c>
       <c r="O35" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>165</v>
@@ -23228,7 +23173,7 @@
       </c>
       <c r="S35" s="27"/>
       <c r="T35" s="27" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -23242,7 +23187,7 @@
         <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>46</v>
@@ -23252,7 +23197,7 @@
       </c>
       <c r="I36" s="27"/>
       <c r="J36" s="27" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="L36" s="27" t="s">
         <v>58</v>
@@ -23261,7 +23206,7 @@
         <v>59</v>
       </c>
       <c r="O36" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>168</v>
@@ -23271,7 +23216,7 @@
       </c>
       <c r="S36" s="27"/>
       <c r="T36" s="27" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -23285,7 +23230,7 @@
         <v>56</v>
       </c>
       <c r="E37" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>173</v>
@@ -23295,7 +23240,7 @@
       </c>
       <c r="I37" s="27"/>
       <c r="J37" s="27" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="L37" s="27" t="s">
         <v>56</v>
@@ -23304,7 +23249,7 @@
         <v>57</v>
       </c>
       <c r="O37" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>172</v>
@@ -23314,7 +23259,7 @@
       </c>
       <c r="S37" s="27"/>
       <c r="T37" s="27" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -23328,7 +23273,7 @@
         <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>17</v>
@@ -23338,7 +23283,7 @@
       </c>
       <c r="I38" s="27"/>
       <c r="J38" s="27" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="L38" s="17" t="s">
         <v>55</v>
@@ -23347,7 +23292,7 @@
         <v>40</v>
       </c>
       <c r="O38" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>176</v>
@@ -23357,7 +23302,7 @@
       </c>
       <c r="S38" s="27"/>
       <c r="T38" s="27" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -23371,7 +23316,7 @@
         <v>51</v>
       </c>
       <c r="E39" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>180</v>
@@ -23381,7 +23326,7 @@
       </c>
       <c r="I39" s="27"/>
       <c r="J39" s="27" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="L39" s="27" t="s">
         <v>51</v>
@@ -23390,7 +23335,7 @@
         <v>52</v>
       </c>
       <c r="O39" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>179</v>
@@ -23400,7 +23345,7 @@
       </c>
       <c r="S39" s="27"/>
       <c r="T39" s="27" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -23414,7 +23359,7 @@
         <v>49</v>
       </c>
       <c r="E40" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>57</v>
@@ -23424,7 +23369,7 @@
       </c>
       <c r="I40" s="27"/>
       <c r="J40" s="27" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L40" s="27" t="s">
         <v>49</v>
@@ -23433,7 +23378,7 @@
         <v>50</v>
       </c>
       <c r="O40" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>181</v>
@@ -23443,7 +23388,7 @@
       </c>
       <c r="S40" s="27"/>
       <c r="T40" s="27" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -23457,7 +23402,7 @@
         <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>178</v>
@@ -23467,7 +23412,7 @@
       </c>
       <c r="I41" s="27"/>
       <c r="J41" s="27" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="L41" s="27" t="s">
         <v>47</v>
@@ -23476,7 +23421,7 @@
         <v>48</v>
       </c>
       <c r="O41" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>185</v>
@@ -23486,7 +23431,7 @@
       </c>
       <c r="S41" s="27"/>
       <c r="T41" s="27" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -23500,7 +23445,7 @@
         <v>227</v>
       </c>
       <c r="E42" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G42" s="27" t="s">
         <v>248</v>
@@ -23510,7 +23455,7 @@
       </c>
       <c r="I42" s="27"/>
       <c r="J42" s="27" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="L42" s="27" t="s">
         <v>227</v>
@@ -23519,7 +23464,7 @@
         <v>226</v>
       </c>
       <c r="O42" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="Q42" s="27" t="s">
         <v>249</v>
@@ -23529,7 +23474,7 @@
       </c>
       <c r="S42" s="27"/>
       <c r="T42" s="27" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -23543,7 +23488,7 @@
         <v>235</v>
       </c>
       <c r="E43" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G43" s="27" t="s">
         <v>240</v>
@@ -23553,7 +23498,7 @@
       </c>
       <c r="I43" s="27"/>
       <c r="J43" s="27" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="L43" s="27" t="s">
         <v>235</v>
@@ -23562,7 +23507,7 @@
         <v>234</v>
       </c>
       <c r="O43" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="Q43" s="27" t="s">
         <v>241</v>
@@ -23572,7 +23517,7 @@
       </c>
       <c r="S43" s="27"/>
       <c r="T43" s="27" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -23586,7 +23531,7 @@
         <v>237</v>
       </c>
       <c r="E44" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G44" s="27" t="s">
         <v>242</v>
@@ -23596,7 +23541,7 @@
       </c>
       <c r="I44" s="27"/>
       <c r="J44" s="27" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="L44" s="27" t="s">
         <v>237</v>
@@ -23605,7 +23550,7 @@
         <v>236</v>
       </c>
       <c r="O44" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="Q44" s="27" t="s">
         <v>243</v>
@@ -23615,7 +23560,7 @@
       </c>
       <c r="S44" s="27"/>
       <c r="T44" s="27" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -23629,7 +23574,7 @@
         <v>231</v>
       </c>
       <c r="E45" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G45" s="27" t="s">
         <v>222</v>
@@ -23639,7 +23584,7 @@
       </c>
       <c r="I45" s="27"/>
       <c r="J45" s="27" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="L45" s="27" t="s">
         <v>231</v>
@@ -23648,7 +23593,7 @@
         <v>230</v>
       </c>
       <c r="O45" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="Q45" s="27" t="s">
         <v>223</v>
@@ -23658,7 +23603,7 @@
       </c>
       <c r="S45" s="27"/>
       <c r="T45" s="27" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -23672,7 +23617,7 @@
         <v>289</v>
       </c>
       <c r="E46" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G46" s="27" t="s">
         <v>286</v>
@@ -23682,7 +23627,7 @@
       </c>
       <c r="I46" s="27"/>
       <c r="J46" s="27" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="L46" s="23" t="s">
         <v>289</v>
@@ -23691,7 +23636,7 @@
         <v>288</v>
       </c>
       <c r="O46" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="Q46" s="27" t="s">
         <v>287</v>
@@ -23701,7 +23646,7 @@
       </c>
       <c r="S46" s="27"/>
       <c r="T46" s="27" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -23715,7 +23660,7 @@
         <v>229</v>
       </c>
       <c r="E47" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G47" s="27" t="s">
         <v>244</v>
@@ -23725,7 +23670,7 @@
       </c>
       <c r="I47" s="27"/>
       <c r="J47" s="27" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="L47" s="27" t="s">
         <v>229</v>
@@ -23734,7 +23679,7 @@
         <v>228</v>
       </c>
       <c r="O47" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="Q47" s="27" t="s">
         <v>245</v>
@@ -23744,7 +23689,7 @@
       </c>
       <c r="S47" s="27"/>
       <c r="T47" s="27" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -23758,7 +23703,7 @@
         <v>233</v>
       </c>
       <c r="E48" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G48" s="27" t="s">
         <v>246</v>
@@ -23768,7 +23713,7 @@
       </c>
       <c r="I48" s="27"/>
       <c r="J48" s="27" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="L48" s="27" t="s">
         <v>233</v>
@@ -23777,7 +23722,7 @@
         <v>232</v>
       </c>
       <c r="O48" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="Q48" s="27" t="s">
         <v>247</v>
@@ -23787,7 +23732,7 @@
       </c>
       <c r="S48" s="27"/>
       <c r="T48" s="27" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -23801,7 +23746,7 @@
         <v>219</v>
       </c>
       <c r="E49" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G49" s="21" t="s">
         <v>35</v>
@@ -23811,7 +23756,7 @@
       </c>
       <c r="I49" s="27"/>
       <c r="J49" s="27" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="L49" s="27" t="s">
         <v>219</v>
@@ -23820,7 +23765,7 @@
         <v>218</v>
       </c>
       <c r="O49" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="Q49" s="21" t="s">
         <v>67</v>
@@ -23830,7 +23775,7 @@
       </c>
       <c r="S49" s="27"/>
       <c r="T49" s="27" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -23844,7 +23789,7 @@
         <v>92</v>
       </c>
       <c r="E50" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G50" s="27" t="s">
         <v>250</v>
@@ -23854,7 +23799,7 @@
       </c>
       <c r="I50" s="27"/>
       <c r="J50" s="27" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>92</v>
@@ -23863,7 +23808,7 @@
         <v>91</v>
       </c>
       <c r="O50" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="Q50" s="27" t="s">
         <v>251</v>
@@ -23873,7 +23818,7 @@
       </c>
       <c r="S50" s="27"/>
       <c r="T50" s="27" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -23887,7 +23832,7 @@
         <v>221</v>
       </c>
       <c r="E51" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G51" s="27" t="s">
         <v>254</v>
@@ -23897,7 +23842,7 @@
       </c>
       <c r="I51" s="27"/>
       <c r="J51" s="27" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="L51" s="27" t="s">
         <v>221</v>
@@ -23906,7 +23851,7 @@
         <v>220</v>
       </c>
       <c r="O51" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="Q51" s="27" t="s">
         <v>255</v>
@@ -23916,7 +23861,7 @@
       </c>
       <c r="S51" s="27"/>
       <c r="T51" s="27" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -23930,7 +23875,7 @@
         <v>285</v>
       </c>
       <c r="E52" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>283</v>
@@ -23940,7 +23885,7 @@
       </c>
       <c r="I52" s="27"/>
       <c r="J52" s="27" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="L52" s="22" t="s">
         <v>285</v>
@@ -23949,7 +23894,7 @@
         <v>145</v>
       </c>
       <c r="O52" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="Q52" s="7" t="s">
         <v>284</v>
@@ -23959,7 +23904,7 @@
       </c>
       <c r="S52" s="27"/>
       <c r="T52" s="27" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -23973,7 +23918,7 @@
         <v>239</v>
       </c>
       <c r="E53" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G53" s="27" t="s">
         <v>224</v>
@@ -23983,7 +23928,7 @@
       </c>
       <c r="I53" s="27"/>
       <c r="J53" s="27" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="L53" s="27" t="s">
         <v>239</v>
@@ -23992,7 +23937,7 @@
         <v>238</v>
       </c>
       <c r="O53" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="Q53" s="27" t="s">
         <v>225</v>
@@ -24002,7 +23947,7 @@
       </c>
       <c r="S53" s="27"/>
       <c r="T53" s="27" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -24016,7 +23961,7 @@
         <v>94</v>
       </c>
       <c r="E54" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G54" s="27" t="s">
         <v>186</v>
@@ -24026,7 +23971,7 @@
       </c>
       <c r="I54" s="27"/>
       <c r="J54" s="27" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="L54" s="27" t="s">
         <v>94</v>
@@ -24035,7 +23980,7 @@
         <v>93</v>
       </c>
       <c r="O54" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="Q54" s="27" t="s">
         <v>187</v>
@@ -24045,7 +23990,7 @@
       </c>
       <c r="S54" s="27"/>
       <c r="T54" s="27" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -24059,7 +24004,7 @@
         <v>282</v>
       </c>
       <c r="E55" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G55" s="27" t="s">
         <v>252</v>
@@ -24069,7 +24014,7 @@
       </c>
       <c r="I55" s="27"/>
       <c r="J55" s="27" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>282</v>
@@ -24078,7 +24023,7 @@
         <v>281</v>
       </c>
       <c r="O55" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="Q55" s="27" t="s">
         <v>253</v>
@@ -24088,7 +24033,7 @@
       </c>
       <c r="S55" s="27"/>
       <c r="T55" s="27" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -24102,7 +24047,7 @@
         <v>98</v>
       </c>
       <c r="E56" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G56" s="27" t="s">
         <v>188</v>
@@ -24112,7 +24057,7 @@
       </c>
       <c r="I56" s="27"/>
       <c r="J56" s="27" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="L56" s="27" t="s">
         <v>98</v>
@@ -24121,7 +24066,7 @@
         <v>97</v>
       </c>
       <c r="O56" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="Q56" s="27" t="s">
         <v>189</v>
@@ -24131,7 +24076,7 @@
       </c>
       <c r="S56" s="27"/>
       <c r="T56" s="27" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -24145,7 +24090,7 @@
         <v>100</v>
       </c>
       <c r="E57" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G57" s="27" t="s">
         <v>192</v>
@@ -24155,7 +24100,7 @@
       </c>
       <c r="I57" s="27"/>
       <c r="J57" s="27" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="L57" s="27" t="s">
         <v>100</v>
@@ -24164,7 +24109,7 @@
         <v>99</v>
       </c>
       <c r="O57" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="Q57" s="27" t="s">
         <v>193</v>
@@ -24174,7 +24119,7 @@
       </c>
       <c r="S57" s="27"/>
       <c r="T57" s="27" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -24182,13 +24127,13 @@
         <v>1</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>343</v>
-      </c>
       <c r="E58" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G58" s="27" t="s">
         <v>190</v>
@@ -24198,16 +24143,16 @@
       </c>
       <c r="I58" s="27"/>
       <c r="J58" s="27" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O58" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="Q58" s="27" t="s">
         <v>191</v>
@@ -24217,7 +24162,7 @@
       </c>
       <c r="S58" s="27"/>
       <c r="T58" s="27" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -24231,7 +24176,7 @@
         <v>104</v>
       </c>
       <c r="E59" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G59" s="27" t="s">
         <v>194</v>
@@ -24241,7 +24186,7 @@
       </c>
       <c r="I59" s="27"/>
       <c r="J59" s="27" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="L59" s="27" t="s">
         <v>104</v>
@@ -24250,7 +24195,7 @@
         <v>103</v>
       </c>
       <c r="O59" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="Q59" s="27" t="s">
         <v>195</v>
@@ -24260,7 +24205,7 @@
       </c>
       <c r="S59" s="27"/>
       <c r="T59" s="27" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -24274,7 +24219,7 @@
         <v>106</v>
       </c>
       <c r="E60" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G60" s="27" t="s">
         <v>196</v>
@@ -24284,7 +24229,7 @@
       </c>
       <c r="I60" s="27"/>
       <c r="J60" s="27" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="L60" s="27" t="s">
         <v>106</v>
@@ -24293,7 +24238,7 @@
         <v>105</v>
       </c>
       <c r="O60" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="Q60" s="27" t="s">
         <v>197</v>
@@ -24303,7 +24248,7 @@
       </c>
       <c r="S60" s="27"/>
       <c r="T60" s="27" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -24317,7 +24262,7 @@
         <v>108</v>
       </c>
       <c r="E61" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G61" s="27" t="s">
         <v>198</v>
@@ -24327,7 +24272,7 @@
       </c>
       <c r="I61" s="27"/>
       <c r="J61" s="27" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="L61" s="27" t="s">
         <v>108</v>
@@ -24336,7 +24281,7 @@
         <v>107</v>
       </c>
       <c r="O61" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="Q61" s="27" t="s">
         <v>199</v>
@@ -24346,7 +24291,7 @@
       </c>
       <c r="S61" s="27"/>
       <c r="T61" s="27" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -24360,7 +24305,7 @@
         <v>276</v>
       </c>
       <c r="E62" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>273</v>
@@ -24370,7 +24315,7 @@
       </c>
       <c r="I62" s="27"/>
       <c r="J62" s="27" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>276</v>
@@ -24379,7 +24324,7 @@
         <v>275</v>
       </c>
       <c r="O62" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="Q62" s="4" t="s">
         <v>274</v>
@@ -24389,7 +24334,7 @@
       </c>
       <c r="S62" s="27"/>
       <c r="T62" s="27" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -24403,7 +24348,7 @@
         <v>278</v>
       </c>
       <c r="E63" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G63" s="27" t="s">
         <v>316</v>
@@ -24413,7 +24358,7 @@
       </c>
       <c r="I63" s="27"/>
       <c r="J63" s="27" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>278</v>
@@ -24422,7 +24367,7 @@
         <v>277</v>
       </c>
       <c r="O63" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="Q63" s="27" t="s">
         <v>317</v>
@@ -24432,7 +24377,7 @@
       </c>
       <c r="S63" s="27"/>
       <c r="T63" s="27" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -24446,7 +24391,7 @@
         <v>297</v>
       </c>
       <c r="E64" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G64" s="27" t="s">
         <v>318</v>
@@ -24456,7 +24401,7 @@
       </c>
       <c r="I64" s="27"/>
       <c r="J64" s="27" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="L64" s="4" t="s">
         <v>297</v>
@@ -24465,7 +24410,7 @@
         <v>296</v>
       </c>
       <c r="O64" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="Q64" s="27" t="s">
         <v>319</v>
@@ -24475,7 +24420,7 @@
       </c>
       <c r="S64" s="27"/>
       <c r="T64" s="27" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -24489,7 +24434,7 @@
         <v>299</v>
       </c>
       <c r="E65" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G65" s="27" t="s">
         <v>314</v>
@@ -24499,7 +24444,7 @@
       </c>
       <c r="I65" s="27"/>
       <c r="J65" s="27" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="L65" s="27" t="s">
         <v>299</v>
@@ -24508,7 +24453,7 @@
         <v>298</v>
       </c>
       <c r="O65" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="Q65" s="27" t="s">
         <v>315</v>
@@ -24518,7 +24463,7 @@
       </c>
       <c r="S65" s="27"/>
       <c r="T65" s="27" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -24532,7 +24477,7 @@
         <v>306</v>
       </c>
       <c r="E66" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G66" s="27" t="s">
         <v>320</v>
@@ -24542,7 +24487,7 @@
       </c>
       <c r="I66" s="27"/>
       <c r="J66" s="27" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="L66" s="27" t="s">
         <v>306</v>
@@ -24551,7 +24496,7 @@
         <v>305</v>
       </c>
       <c r="O66" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="Q66" s="27" t="s">
         <v>321</v>
@@ -24561,7 +24506,7 @@
       </c>
       <c r="S66" s="27"/>
       <c r="T66" s="27" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -24575,7 +24520,7 @@
         <v>309</v>
       </c>
       <c r="E67" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G67" s="27" t="s">
         <v>322</v>
@@ -24585,7 +24530,7 @@
       </c>
       <c r="I67" s="27"/>
       <c r="J67" s="27" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="L67" s="27" t="s">
         <v>309</v>
@@ -24594,7 +24539,7 @@
         <v>308</v>
       </c>
       <c r="O67" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="Q67" s="27" t="s">
         <v>323</v>
@@ -24604,7 +24549,7 @@
       </c>
       <c r="S67" s="27"/>
       <c r="T67" s="27" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -24618,7 +24563,7 @@
         <v>337</v>
       </c>
       <c r="E68" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G68" s="27" t="s">
         <v>325</v>
@@ -24628,7 +24573,7 @@
       </c>
       <c r="I68" s="27"/>
       <c r="J68" s="27" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="L68" s="27" t="s">
         <v>337</v>
@@ -24637,7 +24582,7 @@
         <v>336</v>
       </c>
       <c r="O68" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="Q68" s="27" t="s">
         <v>324</v>
@@ -24647,7 +24592,7 @@
       </c>
       <c r="S68" s="27"/>
       <c r="T68" s="27" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -24661,7 +24606,7 @@
         <v>311</v>
       </c>
       <c r="E69" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G69" s="27" t="s">
         <v>340</v>
@@ -24671,7 +24616,7 @@
       </c>
       <c r="I69" s="27"/>
       <c r="J69" s="27" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="L69" s="27" t="s">
         <v>311</v>
@@ -24680,7 +24625,7 @@
         <v>310</v>
       </c>
       <c r="O69" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="Q69" s="27" t="s">
         <v>327</v>
@@ -24690,7 +24635,7 @@
       </c>
       <c r="S69" s="27"/>
       <c r="T69" s="27" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -24704,7 +24649,7 @@
         <v>280</v>
       </c>
       <c r="E70" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G70" s="27" t="s">
         <v>328</v>
@@ -24714,7 +24659,7 @@
       </c>
       <c r="I70" s="27"/>
       <c r="J70" s="27" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>280</v>
@@ -24723,7 +24668,7 @@
         <v>279</v>
       </c>
       <c r="O70" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="Q70" s="27" t="s">
         <v>329</v>
@@ -24733,7 +24678,7 @@
       </c>
       <c r="S70" s="27"/>
       <c r="T70" s="27" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -24747,7 +24692,7 @@
         <v>304</v>
       </c>
       <c r="E71" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G71" s="27" t="s">
         <v>330</v>
@@ -24757,7 +24702,7 @@
       </c>
       <c r="I71" s="27"/>
       <c r="J71" s="27" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="L71" s="27" t="s">
         <v>304</v>
@@ -24766,7 +24711,7 @@
         <v>303</v>
       </c>
       <c r="O71" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="Q71" s="27" t="s">
         <v>331</v>
@@ -24776,7 +24721,7 @@
       </c>
       <c r="S71" s="27"/>
       <c r="T71" s="27" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -24790,7 +24735,7 @@
         <v>313</v>
       </c>
       <c r="E72" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G72" s="27" t="s">
         <v>332</v>
@@ -24800,7 +24745,7 @@
       </c>
       <c r="I72" s="27"/>
       <c r="J72" s="27" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="L72" s="27" t="s">
         <v>313</v>
@@ -24809,7 +24754,7 @@
         <v>312</v>
       </c>
       <c r="O72" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="Q72" s="27" t="s">
         <v>52</v>
@@ -24819,7 +24764,7 @@
       </c>
       <c r="S72" s="27"/>
       <c r="T72" s="27" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -24833,7 +24778,7 @@
         <v>134</v>
       </c>
       <c r="E73" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>203</v>
@@ -24843,7 +24788,7 @@
       </c>
       <c r="I73" s="27"/>
       <c r="J73" s="27" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="L73" s="27" t="s">
         <v>134</v>
@@ -24852,7 +24797,7 @@
         <v>300</v>
       </c>
       <c r="O73" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="Q73" s="4" t="s">
         <v>202</v>
@@ -24862,7 +24807,7 @@
       </c>
       <c r="S73" s="27"/>
       <c r="T73" s="27" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -24876,7 +24821,7 @@
         <v>111</v>
       </c>
       <c r="E74" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G74" s="27" t="s">
         <v>334</v>
@@ -24886,7 +24831,7 @@
       </c>
       <c r="I74" s="27"/>
       <c r="J74" s="27" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="L74" s="27" t="s">
         <v>111</v>
@@ -24895,7 +24840,7 @@
         <v>110</v>
       </c>
       <c r="O74" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="Q74" s="6" t="s">
         <v>333</v>
@@ -24905,7 +24850,7 @@
       </c>
       <c r="S74" s="27"/>
       <c r="T74" s="27" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -24919,7 +24864,7 @@
         <v>302</v>
       </c>
       <c r="E75" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>201</v>
@@ -24929,7 +24874,7 @@
       </c>
       <c r="I75" s="27"/>
       <c r="J75" s="27" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="L75" s="27" t="s">
         <v>302</v>
@@ -24938,7 +24883,7 @@
         <v>301</v>
       </c>
       <c r="O75" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="Q75" s="4" t="s">
         <v>200</v>
@@ -24948,7 +24893,7 @@
       </c>
       <c r="S75" s="27"/>
       <c r="T75" s="27" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -24962,7 +24907,7 @@
         <v>291</v>
       </c>
       <c r="E76" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>204</v>
@@ -24972,7 +24917,7 @@
       </c>
       <c r="I76" s="27"/>
       <c r="J76" s="27" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="L76" s="27" t="s">
         <v>291</v>
@@ -24981,7 +24926,7 @@
         <v>290</v>
       </c>
       <c r="O76" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="Q76" s="4" t="s">
         <v>205</v>
@@ -24991,7 +24936,7 @@
       </c>
       <c r="S76" s="27"/>
       <c r="T76" s="27" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -25005,7 +24950,7 @@
         <v>293</v>
       </c>
       <c r="E77" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>206</v>
@@ -25015,7 +24960,7 @@
       </c>
       <c r="I77" s="27"/>
       <c r="J77" s="27" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="L77" s="27" t="s">
         <v>293</v>
@@ -25024,7 +24969,7 @@
         <v>292</v>
       </c>
       <c r="O77" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="Q77" s="4" t="s">
         <v>207</v>
@@ -25034,7 +24979,7 @@
       </c>
       <c r="S77" s="27"/>
       <c r="T77" s="27" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -25048,7 +24993,7 @@
         <v>295</v>
       </c>
       <c r="E78" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>208</v>
@@ -25058,7 +25003,7 @@
       </c>
       <c r="I78" s="27"/>
       <c r="J78" s="27" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="L78" s="27" t="s">
         <v>295</v>
@@ -25067,7 +25012,7 @@
         <v>294</v>
       </c>
       <c r="O78" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="Q78" s="4" t="s">
         <v>209</v>
@@ -25077,7 +25022,7 @@
       </c>
       <c r="S78" s="27"/>
       <c r="T78" s="27" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -25091,7 +25036,7 @@
         <v>113</v>
       </c>
       <c r="E79" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G79" s="27" t="s">
         <v>339</v>
@@ -25101,7 +25046,7 @@
       </c>
       <c r="I79" s="27"/>
       <c r="J79" s="27" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="L79" s="27" t="s">
         <v>113</v>
@@ -25110,7 +25055,7 @@
         <v>112</v>
       </c>
       <c r="O79" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="Q79" s="27" t="s">
         <v>335</v>
@@ -25120,7 +25065,7 @@
       </c>
       <c r="S79" s="27"/>
       <c r="T79" s="27" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -25134,7 +25079,7 @@
         <v>115</v>
       </c>
       <c r="E80" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G80" s="27" t="s">
         <v>338</v>
@@ -25144,7 +25089,7 @@
       </c>
       <c r="I80" s="27"/>
       <c r="J80" s="27" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="L80" s="27" t="s">
         <v>115</v>
@@ -25153,7 +25098,7 @@
         <v>114</v>
       </c>
       <c r="O80" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="Q80" s="17" t="s">
         <v>307</v>
@@ -25163,7 +25108,7 @@
       </c>
       <c r="S80" s="27"/>
       <c r="T80" s="27" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -25177,7 +25122,7 @@
         <v>117</v>
       </c>
       <c r="E81" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>210</v>
@@ -25187,7 +25132,7 @@
       </c>
       <c r="I81" s="27"/>
       <c r="J81" s="27" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="L81" s="27" t="s">
         <v>117</v>
@@ -25196,7 +25141,7 @@
         <v>116</v>
       </c>
       <c r="O81" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="Q81" s="4" t="s">
         <v>211</v>
@@ -25206,7 +25151,7 @@
       </c>
       <c r="S81" s="27"/>
       <c r="T81" s="27" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -25220,7 +25165,7 @@
         <v>120</v>
       </c>
       <c r="E82" t="s">
-        <v>427</v>
+        <v>608</v>
       </c>
       <c r="G82" s="27" t="s">
         <v>2</v>
@@ -25230,7 +25175,7 @@
       </c>
       <c r="I82" s="27"/>
       <c r="J82" s="27" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>120</v>
@@ -25239,7 +25184,7 @@
         <v>119</v>
       </c>
       <c r="O82" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="Q82" s="27" t="s">
         <v>3</v>
@@ -25249,7 +25194,7 @@
       </c>
       <c r="S82" s="27"/>
       <c r="T82" s="27" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -25263,7 +25208,7 @@
         <v>126</v>
       </c>
       <c r="E83" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="G83" s="27" t="s">
         <v>14</v>
@@ -25273,7 +25218,7 @@
       </c>
       <c r="I83" s="27"/>
       <c r="J83" s="27" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>126</v>
@@ -25282,7 +25227,7 @@
         <v>125</v>
       </c>
       <c r="O83" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="Q83" s="27" t="s">
         <v>15</v>
@@ -25292,7 +25237,7 @@
       </c>
       <c r="S83" s="27"/>
       <c r="T83" s="27" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -25306,7 +25251,7 @@
         <v>25</v>
       </c>
       <c r="E84" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G84" s="27" t="s">
         <v>16</v>
@@ -25316,7 +25261,7 @@
       </c>
       <c r="I84" s="27"/>
       <c r="J84" s="27" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>25</v>
@@ -25325,7 +25270,7 @@
         <v>127</v>
       </c>
       <c r="O84" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="Q84" s="27" t="s">
         <v>17</v>
@@ -25335,7 +25280,7 @@
       </c>
       <c r="S84" s="27"/>
       <c r="T84" s="27" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -25349,7 +25294,7 @@
         <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="G85" s="27" t="s">
         <v>12</v>
@@ -25359,7 +25304,7 @@
       </c>
       <c r="I85" s="27"/>
       <c r="J85" s="27" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>4</v>
@@ -25368,7 +25313,7 @@
         <v>128</v>
       </c>
       <c r="O85" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="Q85" s="27" t="s">
         <v>13</v>
@@ -25378,7 +25323,7 @@
       </c>
       <c r="S85" s="27"/>
       <c r="T85" s="27" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -25392,7 +25337,7 @@
         <v>123</v>
       </c>
       <c r="E86" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G86" s="27" t="s">
         <v>18</v>
@@ -25402,7 +25347,7 @@
       </c>
       <c r="I86" s="27"/>
       <c r="J86" s="27" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>123</v>
@@ -25411,7 +25356,7 @@
         <v>122</v>
       </c>
       <c r="O86" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="Q86" s="27" t="s">
         <v>19</v>
@@ -25421,7 +25366,7 @@
       </c>
       <c r="S86" s="27"/>
       <c r="T86" s="27" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -25435,7 +25380,7 @@
         <v>92</v>
       </c>
       <c r="E87" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G87" s="27" t="s">
         <v>20</v>
@@ -25445,7 +25390,7 @@
       </c>
       <c r="I87" s="27"/>
       <c r="J87" s="27" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>92</v>
@@ -25454,7 +25399,7 @@
         <v>124</v>
       </c>
       <c r="O87" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="Q87" s="27" t="s">
         <v>21</v>
@@ -25464,7 +25409,7 @@
       </c>
       <c r="S87" s="27"/>
       <c r="T87" s="27" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -25478,7 +25423,7 @@
         <v>29</v>
       </c>
       <c r="E88" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G88" s="27" t="s">
         <v>22</v>
@@ -25488,7 +25433,7 @@
       </c>
       <c r="I88" s="27"/>
       <c r="J88" s="27" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>29</v>
@@ -25497,7 +25442,7 @@
         <v>121</v>
       </c>
       <c r="O88" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="Q88" s="27" t="s">
         <v>23</v>
@@ -25507,7 +25452,7 @@
       </c>
       <c r="S88" s="27"/>
       <c r="T88" s="27" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -25521,7 +25466,7 @@
         <v>143</v>
       </c>
       <c r="E89" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G89" s="27" t="s">
         <v>24</v>
@@ -25531,7 +25476,7 @@
       </c>
       <c r="I89" s="27"/>
       <c r="J89" s="27" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>143</v>
@@ -25540,7 +25485,7 @@
         <v>142</v>
       </c>
       <c r="O89" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="Q89" s="27" t="s">
         <v>25</v>
@@ -25550,7 +25495,7 @@
       </c>
       <c r="S89" s="27"/>
       <c r="T89" s="27" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -25564,7 +25509,7 @@
         <v>147</v>
       </c>
       <c r="E90" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G90" s="27" t="s">
         <v>26</v>
@@ -25574,7 +25519,7 @@
       </c>
       <c r="I90" s="27"/>
       <c r="J90" s="27" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>147</v>
@@ -25583,7 +25528,7 @@
         <v>146</v>
       </c>
       <c r="O90" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="Q90" s="27" t="s">
         <v>27</v>
@@ -25593,7 +25538,7 @@
       </c>
       <c r="S90" s="27"/>
       <c r="T90" s="27" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -25607,7 +25552,7 @@
         <v>151</v>
       </c>
       <c r="E91" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="G91" s="27" t="s">
         <v>28</v>
@@ -25617,7 +25562,7 @@
       </c>
       <c r="I91" s="27"/>
       <c r="J91" s="27" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L91" s="27" t="s">
         <v>151</v>
@@ -25626,7 +25571,7 @@
         <v>150</v>
       </c>
       <c r="O91" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="Q91" s="27" t="s">
         <v>29</v>
@@ -25636,7 +25581,7 @@
       </c>
       <c r="S91" s="27"/>
       <c r="T91" s="27" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -25650,7 +25595,7 @@
         <v>134</v>
       </c>
       <c r="E92" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G92" s="27" t="s">
         <v>30</v>
@@ -25660,7 +25605,7 @@
       </c>
       <c r="I92" s="27"/>
       <c r="J92" s="27" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>134</v>
@@ -25669,7 +25614,7 @@
         <v>154</v>
       </c>
       <c r="O92" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="Q92" s="27" t="s">
         <v>31</v>
@@ -25679,7 +25624,7 @@
       </c>
       <c r="S92" s="27"/>
       <c r="T92" s="27" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -25693,7 +25638,7 @@
         <v>158</v>
       </c>
       <c r="E93" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="G93" s="27" t="s">
         <v>32</v>
@@ -25703,7 +25648,7 @@
       </c>
       <c r="I93" s="27"/>
       <c r="J93" s="27" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>158</v>
@@ -25712,7 +25657,7 @@
         <v>157</v>
       </c>
       <c r="O93" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="Q93" s="27" t="s">
         <v>33</v>
@@ -25722,7 +25667,7 @@
       </c>
       <c r="S93" s="27"/>
       <c r="T93" s="27" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -25736,7 +25681,7 @@
         <v>162</v>
       </c>
       <c r="E94" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G94" s="27" t="s">
         <v>34</v>
@@ -25746,7 +25691,7 @@
       </c>
       <c r="I94" s="27"/>
       <c r="J94" s="27" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>162</v>
@@ -25755,7 +25700,7 @@
         <v>161</v>
       </c>
       <c r="O94" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="Q94" s="27" t="s">
         <v>35</v>
@@ -25765,7 +25710,7 @@
       </c>
       <c r="S94" s="27"/>
       <c r="T94" s="27" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -25779,7 +25724,7 @@
         <v>167</v>
       </c>
       <c r="E95" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="G95" s="27" t="s">
         <v>263</v>
@@ -25789,7 +25734,7 @@
       </c>
       <c r="I95" s="27"/>
       <c r="J95" s="27" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>167</v>
@@ -25798,7 +25743,7 @@
         <v>166</v>
       </c>
       <c r="O95" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="Q95" s="27" t="s">
         <v>264</v>
@@ -25808,7 +25753,7 @@
       </c>
       <c r="S95" s="27"/>
       <c r="T95" s="27" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -25822,7 +25767,7 @@
         <v>40</v>
       </c>
       <c r="E96" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G96" s="27" t="s">
         <v>36</v>
@@ -25832,7 +25777,7 @@
       </c>
       <c r="I96" s="27"/>
       <c r="J96" s="27" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>40</v>
@@ -25841,7 +25786,7 @@
         <v>169</v>
       </c>
       <c r="O96" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="Q96" s="27" t="s">
         <v>37</v>
@@ -25851,7 +25796,7 @@
       </c>
       <c r="S96" s="27"/>
       <c r="T96" s="27" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -25865,7 +25810,7 @@
         <v>171</v>
       </c>
       <c r="E97" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="G97" s="27" t="s">
         <v>38</v>
@@ -25875,7 +25820,7 @@
       </c>
       <c r="I97" s="27"/>
       <c r="J97" s="27" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>171</v>
@@ -25884,7 +25829,7 @@
         <v>170</v>
       </c>
       <c r="O97" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="Q97" s="27" t="s">
         <v>39</v>
@@ -25894,7 +25839,7 @@
       </c>
       <c r="S97" s="27"/>
       <c r="T97" s="27" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -25908,7 +25853,7 @@
         <v>175</v>
       </c>
       <c r="E98" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G98" s="27" t="s">
         <v>53</v>
@@ -25918,7 +25863,7 @@
       </c>
       <c r="I98" s="27"/>
       <c r="J98" s="27" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L98" s="27" t="s">
         <v>175</v>
@@ -25927,7 +25872,7 @@
         <v>174</v>
       </c>
       <c r="O98" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="Q98" s="27" t="s">
         <v>54</v>
@@ -25937,7 +25882,7 @@
       </c>
       <c r="S98" s="27"/>
       <c r="T98" s="27" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -25951,7 +25896,7 @@
         <v>178</v>
       </c>
       <c r="E99" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="G99" s="27" t="s">
         <v>41</v>
@@ -25961,7 +25906,7 @@
       </c>
       <c r="I99" s="27"/>
       <c r="J99" s="27" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>178</v>
@@ -25970,7 +25915,7 @@
         <v>177</v>
       </c>
       <c r="O99" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="Q99" s="27" t="s">
         <v>42</v>
@@ -25980,7 +25925,7 @@
       </c>
       <c r="S99" s="27"/>
       <c r="T99" s="27" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -25994,7 +25939,7 @@
         <v>23</v>
       </c>
       <c r="E100" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G100" s="27" t="s">
         <v>43</v>
@@ -26004,7 +25949,7 @@
       </c>
       <c r="I100" s="27"/>
       <c r="J100" s="27" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>23</v>
@@ -26013,7 +25958,7 @@
         <v>182</v>
       </c>
       <c r="O100" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="Q100" s="27" t="s">
         <v>44</v>
@@ -26023,7 +25968,7 @@
       </c>
       <c r="S100" s="27"/>
       <c r="T100" s="27" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -26037,7 +25982,7 @@
         <v>184</v>
       </c>
       <c r="E101" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="G101" s="27" t="s">
         <v>45</v>
@@ -26047,7 +25992,7 @@
       </c>
       <c r="I101" s="27"/>
       <c r="J101" s="27" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>184</v>
@@ -26056,7 +26001,7 @@
         <v>183</v>
       </c>
       <c r="O101" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="Q101" s="27" t="s">
         <v>46</v>
@@ -26066,7 +26011,7 @@
       </c>
       <c r="S101" s="27"/>
       <c r="T101" s="27" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -26080,7 +26025,7 @@
         <v>131</v>
       </c>
       <c r="E102" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G102" s="27" t="s">
         <v>85</v>
@@ -26090,7 +26035,7 @@
       </c>
       <c r="I102" s="27"/>
       <c r="J102" s="27" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>131</v>
@@ -26099,7 +26044,7 @@
         <v>132</v>
       </c>
       <c r="O102" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="Q102" s="27" t="s">
         <v>84</v>
@@ -26109,7 +26054,7 @@
       </c>
       <c r="S102" s="27"/>
       <c r="T102" s="27" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -26123,7 +26068,7 @@
         <v>133</v>
       </c>
       <c r="E103" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="G103" s="27" t="s">
         <v>67</v>
@@ -26133,7 +26078,7 @@
       </c>
       <c r="I103" s="27"/>
       <c r="J103" s="27" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L103" s="27" t="s">
         <v>133</v>
@@ -26142,7 +26087,7 @@
         <v>134</v>
       </c>
       <c r="O103" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="Q103" s="27" t="s">
         <v>66</v>
@@ -26152,7 +26097,7 @@
       </c>
       <c r="S103" s="27"/>
       <c r="T103" s="27" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -26166,7 +26111,7 @@
         <v>135</v>
       </c>
       <c r="E104" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G104" s="27" t="s">
         <v>75</v>
@@ -26176,7 +26121,7 @@
       </c>
       <c r="I104" s="27"/>
       <c r="J104" s="27" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>135</v>
@@ -26185,7 +26130,7 @@
         <v>3</v>
       </c>
       <c r="O104" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="Q104" s="27" t="s">
         <v>74</v>
@@ -26195,7 +26140,7 @@
       </c>
       <c r="S104" s="27"/>
       <c r="T104" s="27" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -26209,7 +26154,7 @@
         <v>130</v>
       </c>
       <c r="E105" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="G105" s="27" t="s">
         <v>71</v>
@@ -26219,7 +26164,7 @@
       </c>
       <c r="I105" s="27"/>
       <c r="J105" s="27" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>130</v>
@@ -26228,7 +26173,7 @@
         <v>27</v>
       </c>
       <c r="O105" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="Q105" s="27" t="s">
         <v>70</v>
@@ -26238,7 +26183,7 @@
       </c>
       <c r="S105" s="27"/>
       <c r="T105" s="27" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -26252,7 +26197,7 @@
         <v>136</v>
       </c>
       <c r="E106" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G106" s="27" t="s">
         <v>87</v>
@@ -26262,7 +26207,7 @@
       </c>
       <c r="I106" s="27"/>
       <c r="J106" s="27" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>136</v>
@@ -26271,7 +26216,7 @@
         <v>137</v>
       </c>
       <c r="O106" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="Q106" s="27" t="s">
         <v>86</v>
@@ -26281,7 +26226,7 @@
       </c>
       <c r="S106" s="27"/>
       <c r="T106" s="27" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -26295,7 +26240,7 @@
         <v>138</v>
       </c>
       <c r="E107" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="G107" s="27" t="s">
         <v>83</v>
@@ -26305,7 +26250,7 @@
       </c>
       <c r="I107" s="27"/>
       <c r="J107" s="27" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>138</v>
@@ -26314,7 +26259,7 @@
         <v>139</v>
       </c>
       <c r="O107" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="Q107" s="27" t="s">
         <v>82</v>
@@ -26324,7 +26269,7 @@
       </c>
       <c r="S107" s="27"/>
       <c r="T107" s="27" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="108" spans="1:20">
@@ -26338,7 +26283,7 @@
         <v>140</v>
       </c>
       <c r="E108" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G108" s="27" t="s">
         <v>81</v>
@@ -26348,7 +26293,7 @@
       </c>
       <c r="I108" s="27"/>
       <c r="J108" s="27" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L108" s="1" t="s">
         <v>140</v>
@@ -26357,7 +26302,7 @@
         <v>141</v>
       </c>
       <c r="O108" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="Q108" s="27" t="s">
         <v>80</v>
@@ -26367,7 +26312,7 @@
       </c>
       <c r="S108" s="27"/>
       <c r="T108" s="27" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="109" spans="1:20">
@@ -26381,7 +26326,7 @@
         <v>144</v>
       </c>
       <c r="E109" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G109" s="27" t="s">
         <v>79</v>
@@ -26391,7 +26336,7 @@
       </c>
       <c r="I109" s="27"/>
       <c r="J109" s="27" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="L109" s="1" t="s">
         <v>144</v>
@@ -26400,7 +26345,7 @@
         <v>145</v>
       </c>
       <c r="O109" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Q109" s="27" t="s">
         <v>78</v>
@@ -26410,7 +26355,7 @@
       </c>
       <c r="S109" s="27"/>
       <c r="T109" s="27" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="110" spans="1:20">
@@ -26424,7 +26369,7 @@
         <v>148</v>
       </c>
       <c r="E110" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="G110" s="27" t="s">
         <v>77</v>
@@ -26434,7 +26379,7 @@
       </c>
       <c r="I110" s="27"/>
       <c r="J110" s="27" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>148</v>
@@ -26443,7 +26388,7 @@
         <v>149</v>
       </c>
       <c r="O110" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="Q110" s="27" t="s">
         <v>76</v>
@@ -26453,7 +26398,7 @@
       </c>
       <c r="S110" s="27"/>
       <c r="T110" s="27" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -26467,7 +26412,7 @@
         <v>152</v>
       </c>
       <c r="E111" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G111" s="27" t="s">
         <v>69</v>
@@ -26477,7 +26422,7 @@
       </c>
       <c r="I111" s="27"/>
       <c r="J111" s="27" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>152</v>
@@ -26486,7 +26431,7 @@
         <v>153</v>
       </c>
       <c r="O111" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="Q111" s="27" t="s">
         <v>68</v>
@@ -26496,7 +26441,7 @@
       </c>
       <c r="S111" s="27"/>
       <c r="T111" s="27" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -26510,7 +26455,7 @@
         <v>155</v>
       </c>
       <c r="E112" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G112" s="27" t="s">
         <v>73</v>
@@ -26520,7 +26465,7 @@
       </c>
       <c r="I112" s="27"/>
       <c r="J112" s="27" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>155</v>
@@ -26529,7 +26474,7 @@
         <v>156</v>
       </c>
       <c r="O112" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Q112" s="27" t="s">
         <v>72</v>
@@ -26539,7 +26484,7 @@
       </c>
       <c r="S112" s="27"/>
       <c r="T112" s="27" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
     </row>
     <row r="113" spans="1:20">
@@ -26553,7 +26498,7 @@
         <v>159</v>
       </c>
       <c r="E113" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G113" s="27" t="s">
         <v>65</v>
@@ -26563,7 +26508,7 @@
       </c>
       <c r="I113" s="27"/>
       <c r="J113" s="27" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>159</v>
@@ -26572,7 +26517,7 @@
         <v>160</v>
       </c>
       <c r="O113" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="Q113" s="27" t="s">
         <v>64</v>
@@ -26582,7 +26527,7 @@
       </c>
       <c r="S113" s="27"/>
       <c r="T113" s="27" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -26596,7 +26541,7 @@
         <v>163</v>
       </c>
       <c r="E114" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G114" s="27" t="s">
         <v>63</v>
@@ -26606,7 +26551,7 @@
       </c>
       <c r="I114" s="27"/>
       <c r="J114" s="27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>163</v>
@@ -26615,7 +26560,7 @@
         <v>164</v>
       </c>
       <c r="O114" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="Q114" s="27" t="s">
         <v>62</v>
@@ -26625,7 +26570,7 @@
       </c>
       <c r="S114" s="27"/>
       <c r="T114" s="27" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="115" spans="1:20">
@@ -26639,7 +26584,7 @@
         <v>165</v>
       </c>
       <c r="E115" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G115" s="27" t="s">
         <v>61</v>
@@ -26649,7 +26594,7 @@
       </c>
       <c r="I115" s="27"/>
       <c r="J115" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>165</v>
@@ -26658,7 +26603,7 @@
         <v>50</v>
       </c>
       <c r="O115" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="Q115" s="27" t="s">
         <v>60</v>
@@ -26668,7 +26613,7 @@
       </c>
       <c r="S115" s="27"/>
       <c r="T115" s="27" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="116" spans="1:20">
@@ -26682,7 +26627,7 @@
         <v>168</v>
       </c>
       <c r="E116" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G116" s="27" t="s">
         <v>59</v>
@@ -26692,7 +26637,7 @@
       </c>
       <c r="I116" s="27"/>
       <c r="J116" s="27" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>168</v>
@@ -26701,7 +26646,7 @@
         <v>46</v>
       </c>
       <c r="O116" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="Q116" s="27" t="s">
         <v>58</v>
@@ -26711,7 +26656,7 @@
       </c>
       <c r="S116" s="27"/>
       <c r="T116" s="27" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="117" spans="1:20">
@@ -26725,7 +26670,7 @@
         <v>172</v>
       </c>
       <c r="E117" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="G117" s="27" t="s">
         <v>57</v>
@@ -26735,7 +26680,7 @@
       </c>
       <c r="I117" s="27"/>
       <c r="J117" s="27" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>172</v>
@@ -26744,7 +26689,7 @@
         <v>173</v>
       </c>
       <c r="O117" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="Q117" s="27" t="s">
         <v>56</v>
@@ -26754,7 +26699,7 @@
       </c>
       <c r="S117" s="27"/>
       <c r="T117" s="27" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="118" spans="1:20">
@@ -26768,7 +26713,7 @@
         <v>176</v>
       </c>
       <c r="E118" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G118" s="17" t="s">
         <v>40</v>
@@ -26778,7 +26723,7 @@
       </c>
       <c r="I118" s="27"/>
       <c r="J118" s="27" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>176</v>
@@ -26787,7 +26732,7 @@
         <v>17</v>
       </c>
       <c r="O118" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="Q118" s="17" t="s">
         <v>55</v>
@@ -26797,7 +26742,7 @@
       </c>
       <c r="S118" s="27"/>
       <c r="T118" s="27" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="119" spans="1:20">
@@ -26811,7 +26756,7 @@
         <v>179</v>
       </c>
       <c r="E119" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G119" s="27" t="s">
         <v>52</v>
@@ -26821,7 +26766,7 @@
       </c>
       <c r="I119" s="27"/>
       <c r="J119" s="27" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>179</v>
@@ -26830,7 +26775,7 @@
         <v>180</v>
       </c>
       <c r="O119" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="Q119" s="27" t="s">
         <v>51</v>
@@ -26840,7 +26785,7 @@
       </c>
       <c r="S119" s="27"/>
       <c r="T119" s="27" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="120" spans="1:20">
@@ -26854,7 +26799,7 @@
         <v>181</v>
       </c>
       <c r="E120" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G120" s="27" t="s">
         <v>50</v>
@@ -26864,7 +26809,7 @@
       </c>
       <c r="I120" s="27"/>
       <c r="J120" s="27" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>181</v>
@@ -26873,7 +26818,7 @@
         <v>57</v>
       </c>
       <c r="O120" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="Q120" s="27" t="s">
         <v>49</v>
@@ -26883,7 +26828,7 @@
       </c>
       <c r="S120" s="27"/>
       <c r="T120" s="27" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="121" spans="1:20">
@@ -26897,7 +26842,7 @@
         <v>185</v>
       </c>
       <c r="E121" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G121" s="27" t="s">
         <v>48</v>
@@ -26907,7 +26852,7 @@
       </c>
       <c r="I121" s="27"/>
       <c r="J121" s="27" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>185</v>
@@ -26916,7 +26861,7 @@
         <v>178</v>
       </c>
       <c r="O121" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="Q121" s="27" t="s">
         <v>47</v>
@@ -26926,7 +26871,7 @@
       </c>
       <c r="S121" s="27"/>
       <c r="T121" s="27" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
     </row>
     <row r="122" spans="1:20">
@@ -26940,7 +26885,7 @@
         <v>249</v>
       </c>
       <c r="E122" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="G122" s="27" t="s">
         <v>226</v>
@@ -26950,7 +26895,7 @@
       </c>
       <c r="I122" s="27"/>
       <c r="J122" s="27" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L122" s="27" t="s">
         <v>249</v>
@@ -26959,7 +26904,7 @@
         <v>248</v>
       </c>
       <c r="O122" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="Q122" s="27" t="s">
         <v>227</v>
@@ -26969,7 +26914,7 @@
       </c>
       <c r="S122" s="27"/>
       <c r="T122" s="27" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="123" spans="1:20">
@@ -26983,7 +26928,7 @@
         <v>241</v>
       </c>
       <c r="E123" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G123" s="27" t="s">
         <v>234</v>
@@ -26993,7 +26938,7 @@
       </c>
       <c r="I123" s="27"/>
       <c r="J123" s="27" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L123" s="27" t="s">
         <v>241</v>
@@ -27002,7 +26947,7 @@
         <v>240</v>
       </c>
       <c r="O123" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="Q123" s="27" t="s">
         <v>235</v>
@@ -27012,7 +26957,7 @@
       </c>
       <c r="S123" s="27"/>
       <c r="T123" s="27" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -27026,7 +26971,7 @@
         <v>243</v>
       </c>
       <c r="E124" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="G124" s="27" t="s">
         <v>236</v>
@@ -27036,7 +26981,7 @@
       </c>
       <c r="I124" s="27"/>
       <c r="J124" s="27" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L124" s="27" t="s">
         <v>243</v>
@@ -27045,7 +26990,7 @@
         <v>242</v>
       </c>
       <c r="O124" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="Q124" s="27" t="s">
         <v>237</v>
@@ -27055,7 +27000,7 @@
       </c>
       <c r="S124" s="27"/>
       <c r="T124" s="27" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -27069,7 +27014,7 @@
         <v>223</v>
       </c>
       <c r="E125" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G125" s="27" t="s">
         <v>230</v>
@@ -27079,7 +27024,7 @@
       </c>
       <c r="I125" s="27"/>
       <c r="J125" s="27" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L125" s="27" t="s">
         <v>223</v>
@@ -27088,7 +27033,7 @@
         <v>222</v>
       </c>
       <c r="O125" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="Q125" s="27" t="s">
         <v>231</v>
@@ -27098,7 +27043,7 @@
       </c>
       <c r="S125" s="27"/>
       <c r="T125" s="27" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -27112,7 +27057,7 @@
         <v>287</v>
       </c>
       <c r="E126" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="G126" s="23" t="s">
         <v>288</v>
@@ -27122,7 +27067,7 @@
       </c>
       <c r="I126" s="27"/>
       <c r="J126" s="27" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L126" s="27" t="s">
         <v>287</v>
@@ -27131,7 +27076,7 @@
         <v>286</v>
       </c>
       <c r="O126" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="Q126" s="23" t="s">
         <v>289</v>
@@ -27141,7 +27086,7 @@
       </c>
       <c r="S126" s="27"/>
       <c r="T126" s="27" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -27155,7 +27100,7 @@
         <v>245</v>
       </c>
       <c r="E127" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G127" s="27" t="s">
         <v>228</v>
@@ -27165,7 +27110,7 @@
       </c>
       <c r="I127" s="27"/>
       <c r="J127" s="27" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L127" s="27" t="s">
         <v>245</v>
@@ -27174,7 +27119,7 @@
         <v>244</v>
       </c>
       <c r="O127" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="Q127" s="27" t="s">
         <v>229</v>
@@ -27184,7 +27129,7 @@
       </c>
       <c r="S127" s="27"/>
       <c r="T127" s="27" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -27198,7 +27143,7 @@
         <v>247</v>
       </c>
       <c r="E128" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="G128" s="27" t="s">
         <v>232</v>
@@ -27208,7 +27153,7 @@
       </c>
       <c r="I128" s="27"/>
       <c r="J128" s="27" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L128" s="27" t="s">
         <v>247</v>
@@ -27217,7 +27162,7 @@
         <v>246</v>
       </c>
       <c r="O128" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="Q128" s="27" t="s">
         <v>233</v>
@@ -27227,7 +27172,7 @@
       </c>
       <c r="S128" s="27"/>
       <c r="T128" s="27" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
     <row r="129" spans="1:20">
@@ -27241,7 +27186,7 @@
         <v>67</v>
       </c>
       <c r="E129" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G129" s="27" t="s">
         <v>218</v>
@@ -27251,7 +27196,7 @@
       </c>
       <c r="I129" s="27"/>
       <c r="J129" s="27" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L129" s="21" t="s">
         <v>67</v>
@@ -27260,7 +27205,7 @@
         <v>35</v>
       </c>
       <c r="O129" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="Q129" s="27" t="s">
         <v>219</v>
@@ -27270,7 +27215,7 @@
       </c>
       <c r="S129" s="27"/>
       <c r="T129" s="27" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
     </row>
     <row r="130" spans="1:20">
@@ -27284,7 +27229,7 @@
         <v>251</v>
       </c>
       <c r="E130" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="G130" s="7" t="s">
         <v>91</v>
@@ -27294,7 +27239,7 @@
       </c>
       <c r="I130" s="27"/>
       <c r="J130" s="27" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L130" s="27" t="s">
         <v>251</v>
@@ -27303,7 +27248,7 @@
         <v>250</v>
       </c>
       <c r="O130" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="Q130" s="7" t="s">
         <v>92</v>
@@ -27313,7 +27258,7 @@
       </c>
       <c r="S130" s="27"/>
       <c r="T130" s="27" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -27327,7 +27272,7 @@
         <v>255</v>
       </c>
       <c r="E131" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G131" s="27" t="s">
         <v>220</v>
@@ -27337,7 +27282,7 @@
       </c>
       <c r="I131" s="27"/>
       <c r="J131" s="27" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L131" s="27" t="s">
         <v>255</v>
@@ -27346,7 +27291,7 @@
         <v>254</v>
       </c>
       <c r="O131" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="Q131" s="27" t="s">
         <v>221</v>
@@ -27356,7 +27301,7 @@
       </c>
       <c r="S131" s="27"/>
       <c r="T131" s="27" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
     </row>
     <row r="132" spans="1:20">
@@ -27370,7 +27315,7 @@
         <v>284</v>
       </c>
       <c r="E132" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="G132" s="22" t="s">
         <v>145</v>
@@ -27380,7 +27325,7 @@
       </c>
       <c r="I132" s="27"/>
       <c r="J132" s="27" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L132" s="7" t="s">
         <v>284</v>
@@ -27389,7 +27334,7 @@
         <v>283</v>
       </c>
       <c r="O132" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="Q132" s="22" t="s">
         <v>285</v>
@@ -27399,7 +27344,7 @@
       </c>
       <c r="S132" s="27"/>
       <c r="T132" s="27" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="133" spans="1:20">
@@ -27413,7 +27358,7 @@
         <v>225</v>
       </c>
       <c r="E133" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G133" s="27" t="s">
         <v>238</v>
@@ -27423,7 +27368,7 @@
       </c>
       <c r="I133" s="27"/>
       <c r="J133" s="27" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L133" s="27" t="s">
         <v>225</v>
@@ -27432,7 +27377,7 @@
         <v>224</v>
       </c>
       <c r="O133" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Q133" s="27" t="s">
         <v>239</v>
@@ -27442,7 +27387,7 @@
       </c>
       <c r="S133" s="27"/>
       <c r="T133" s="27" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
     </row>
     <row r="134" spans="1:20">
@@ -27456,7 +27401,7 @@
         <v>187</v>
       </c>
       <c r="E134" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="G134" s="27" t="s">
         <v>93</v>
@@ -27466,7 +27411,7 @@
       </c>
       <c r="I134" s="27"/>
       <c r="J134" s="27" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="L134" s="27" t="s">
         <v>187</v>
@@ -27475,7 +27420,7 @@
         <v>186</v>
       </c>
       <c r="O134" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Q134" s="27" t="s">
         <v>94</v>
@@ -27485,7 +27430,7 @@
       </c>
       <c r="S134" s="27"/>
       <c r="T134" s="27" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
     </row>
     <row r="135" spans="1:20">
@@ -27499,7 +27444,7 @@
         <v>253</v>
       </c>
       <c r="E135" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G135" s="7" t="s">
         <v>281</v>
@@ -27509,7 +27454,7 @@
       </c>
       <c r="I135" s="27"/>
       <c r="J135" s="27" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L135" s="27" t="s">
         <v>253</v>
@@ -27518,7 +27463,7 @@
         <v>252</v>
       </c>
       <c r="O135" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="Q135" s="7" t="s">
         <v>282</v>
@@ -27528,7 +27473,7 @@
       </c>
       <c r="S135" s="27"/>
       <c r="T135" s="27" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -27542,7 +27487,7 @@
         <v>189</v>
       </c>
       <c r="E136" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="G136" s="27" t="s">
         <v>97</v>
@@ -27552,7 +27497,7 @@
       </c>
       <c r="I136" s="27"/>
       <c r="J136" s="27" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L136" s="27" t="s">
         <v>189</v>
@@ -27561,7 +27506,7 @@
         <v>188</v>
       </c>
       <c r="O136" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="Q136" s="27" t="s">
         <v>98</v>
@@ -27571,7 +27516,7 @@
       </c>
       <c r="S136" s="27"/>
       <c r="T136" s="27" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
     <row r="137" spans="1:20">
@@ -27585,7 +27530,7 @@
         <v>193</v>
       </c>
       <c r="E137" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G137" s="27" t="s">
         <v>99</v>
@@ -27595,7 +27540,7 @@
       </c>
       <c r="I137" s="27"/>
       <c r="J137" s="27" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L137" s="27" t="s">
         <v>193</v>
@@ -27604,7 +27549,7 @@
         <v>192</v>
       </c>
       <c r="O137" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="Q137" s="27" t="s">
         <v>100</v>
@@ -27614,7 +27559,7 @@
       </c>
       <c r="S137" s="27"/>
       <c r="T137" s="27" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
     </row>
     <row r="138" spans="1:20">
@@ -27628,17 +27573,17 @@
         <v>191</v>
       </c>
       <c r="E138" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="G138" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H138" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="H138" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="I138" s="27"/>
       <c r="J138" s="27" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L138" s="27" t="s">
         <v>191</v>
@@ -27647,17 +27592,17 @@
         <v>190</v>
       </c>
       <c r="O138" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="Q138" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="R138" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S138" s="27"/>
       <c r="T138" s="27" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="139" spans="1:20">
@@ -27671,7 +27616,7 @@
         <v>195</v>
       </c>
       <c r="E139" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G139" s="27" t="s">
         <v>103</v>
@@ -27681,7 +27626,7 @@
       </c>
       <c r="I139" s="27"/>
       <c r="J139" s="27" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L139" s="27" t="s">
         <v>195</v>
@@ -27690,7 +27635,7 @@
         <v>194</v>
       </c>
       <c r="O139" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="Q139" s="27" t="s">
         <v>104</v>
@@ -27700,7 +27645,7 @@
       </c>
       <c r="S139" s="27"/>
       <c r="T139" s="27" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
     </row>
     <row r="140" spans="1:20">
@@ -27714,7 +27659,7 @@
         <v>197</v>
       </c>
       <c r="E140" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="G140" s="27" t="s">
         <v>105</v>
@@ -27724,7 +27669,7 @@
       </c>
       <c r="I140" s="27"/>
       <c r="J140" s="27" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L140" s="27" t="s">
         <v>197</v>
@@ -27733,7 +27678,7 @@
         <v>196</v>
       </c>
       <c r="O140" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="Q140" s="27" t="s">
         <v>106</v>
@@ -27743,7 +27688,7 @@
       </c>
       <c r="S140" s="27"/>
       <c r="T140" s="27" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
     </row>
     <row r="141" spans="1:20">
@@ -27757,7 +27702,7 @@
         <v>199</v>
       </c>
       <c r="E141" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G141" s="27" t="s">
         <v>107</v>
@@ -27767,7 +27712,7 @@
       </c>
       <c r="I141" s="27"/>
       <c r="J141" s="27" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L141" s="27" t="s">
         <v>199</v>
@@ -27776,7 +27721,7 @@
         <v>198</v>
       </c>
       <c r="O141" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="Q141" s="27" t="s">
         <v>108</v>
@@ -27786,7 +27731,7 @@
       </c>
       <c r="S141" s="27"/>
       <c r="T141" s="27" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
     </row>
     <row r="142" spans="1:20">
@@ -27800,7 +27745,7 @@
         <v>274</v>
       </c>
       <c r="E142" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>275</v>
@@ -27810,7 +27755,7 @@
       </c>
       <c r="I142" s="27"/>
       <c r="J142" s="27" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="L142" s="4" t="s">
         <v>274</v>
@@ -27819,7 +27764,7 @@
         <v>273</v>
       </c>
       <c r="O142" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="Q142" s="4" t="s">
         <v>276</v>
@@ -27829,7 +27774,7 @@
       </c>
       <c r="S142" s="27"/>
       <c r="T142" s="27" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="143" spans="1:20">
@@ -27843,7 +27788,7 @@
         <v>317</v>
       </c>
       <c r="E143" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>277</v>
@@ -27853,7 +27798,7 @@
       </c>
       <c r="I143" s="27"/>
       <c r="J143" s="27" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L143" s="27" t="s">
         <v>317</v>
@@ -27862,7 +27807,7 @@
         <v>316</v>
       </c>
       <c r="O143" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="Q143" s="4" t="s">
         <v>278</v>
@@ -27872,7 +27817,7 @@
       </c>
       <c r="S143" s="27"/>
       <c r="T143" s="27" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
     <row r="144" spans="1:20">
@@ -27886,7 +27831,7 @@
         <v>319</v>
       </c>
       <c r="E144" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>296</v>
@@ -27896,7 +27841,7 @@
       </c>
       <c r="I144" s="27"/>
       <c r="J144" s="27" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L144" s="27" t="s">
         <v>319</v>
@@ -27905,7 +27850,7 @@
         <v>318</v>
       </c>
       <c r="O144" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="Q144" s="4" t="s">
         <v>297</v>
@@ -27915,7 +27860,7 @@
       </c>
       <c r="S144" s="27"/>
       <c r="T144" s="27" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
     </row>
     <row r="145" spans="1:20">
@@ -27929,7 +27874,7 @@
         <v>315</v>
       </c>
       <c r="E145" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G145" s="27" t="s">
         <v>298</v>
@@ -27939,7 +27884,7 @@
       </c>
       <c r="I145" s="27"/>
       <c r="J145" s="27" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L145" s="27" t="s">
         <v>315</v>
@@ -27948,7 +27893,7 @@
         <v>314</v>
       </c>
       <c r="O145" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="Q145" s="27" t="s">
         <v>299</v>
@@ -27958,7 +27903,7 @@
       </c>
       <c r="S145" s="27"/>
       <c r="T145" s="27" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="146" spans="1:20">
@@ -27972,7 +27917,7 @@
         <v>321</v>
       </c>
       <c r="E146" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G146" s="27" t="s">
         <v>305</v>
@@ -27982,7 +27927,7 @@
       </c>
       <c r="I146" s="27"/>
       <c r="J146" s="27" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L146" s="27" t="s">
         <v>321</v>
@@ -27991,7 +27936,7 @@
         <v>320</v>
       </c>
       <c r="O146" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="Q146" s="27" t="s">
         <v>306</v>
@@ -28001,7 +27946,7 @@
       </c>
       <c r="S146" s="27"/>
       <c r="T146" s="27" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
     </row>
     <row r="147" spans="1:20">
@@ -28015,7 +27960,7 @@
         <v>323</v>
       </c>
       <c r="E147" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G147" s="27" t="s">
         <v>308</v>
@@ -28025,7 +27970,7 @@
       </c>
       <c r="I147" s="27"/>
       <c r="J147" s="27" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L147" s="27" t="s">
         <v>323</v>
@@ -28034,7 +27979,7 @@
         <v>322</v>
       </c>
       <c r="O147" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="Q147" s="27" t="s">
         <v>309</v>
@@ -28044,7 +27989,7 @@
       </c>
       <c r="S147" s="27"/>
       <c r="T147" s="27" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
     </row>
     <row r="148" spans="1:20">
@@ -28058,7 +28003,7 @@
         <v>324</v>
       </c>
       <c r="E148" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G148" s="27" t="s">
         <v>336</v>
@@ -28068,7 +28013,7 @@
       </c>
       <c r="I148" s="27"/>
       <c r="J148" s="27" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L148" s="27" t="s">
         <v>324</v>
@@ -28077,7 +28022,7 @@
         <v>325</v>
       </c>
       <c r="O148" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="Q148" s="27" t="s">
         <v>337</v>
@@ -28087,7 +28032,7 @@
       </c>
       <c r="S148" s="27"/>
       <c r="T148" s="27" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
     </row>
     <row r="149" spans="1:20">
@@ -28101,7 +28046,7 @@
         <v>327</v>
       </c>
       <c r="E149" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G149" s="27" t="s">
         <v>310</v>
@@ -28111,7 +28056,7 @@
       </c>
       <c r="I149" s="27"/>
       <c r="J149" s="27" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L149" s="27" t="s">
         <v>327</v>
@@ -28120,7 +28065,7 @@
         <v>340</v>
       </c>
       <c r="O149" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="Q149" s="27" t="s">
         <v>311</v>
@@ -28130,7 +28075,7 @@
       </c>
       <c r="S149" s="27"/>
       <c r="T149" s="27" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
     </row>
     <row r="150" spans="1:20">
@@ -28144,7 +28089,7 @@
         <v>329</v>
       </c>
       <c r="E150" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>279</v>
@@ -28154,7 +28099,7 @@
       </c>
       <c r="I150" s="27"/>
       <c r="J150" s="27" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L150" s="27" t="s">
         <v>329</v>
@@ -28163,7 +28108,7 @@
         <v>328</v>
       </c>
       <c r="O150" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="Q150" s="4" t="s">
         <v>280</v>
@@ -28173,7 +28118,7 @@
       </c>
       <c r="S150" s="27"/>
       <c r="T150" s="27" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
     </row>
     <row r="151" spans="1:20">
@@ -28187,7 +28132,7 @@
         <v>331</v>
       </c>
       <c r="E151" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G151" s="27" t="s">
         <v>303</v>
@@ -28197,7 +28142,7 @@
       </c>
       <c r="I151" s="27"/>
       <c r="J151" s="27" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L151" s="27" t="s">
         <v>331</v>
@@ -28206,7 +28151,7 @@
         <v>330</v>
       </c>
       <c r="O151" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="Q151" s="27" t="s">
         <v>304</v>
@@ -28216,7 +28161,7 @@
       </c>
       <c r="S151" s="27"/>
       <c r="T151" s="27" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
     </row>
     <row r="152" spans="1:20">
@@ -28230,7 +28175,7 @@
         <v>52</v>
       </c>
       <c r="E152" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="G152" s="27" t="s">
         <v>312</v>
@@ -28240,7 +28185,7 @@
       </c>
       <c r="I152" s="27"/>
       <c r="J152" s="27" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L152" s="27" t="s">
         <v>52</v>
@@ -28249,7 +28194,7 @@
         <v>332</v>
       </c>
       <c r="O152" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="Q152" s="27" t="s">
         <v>313</v>
@@ -28259,7 +28204,7 @@
       </c>
       <c r="S152" s="27"/>
       <c r="T152" s="27" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
     </row>
     <row r="153" spans="1:20">
@@ -28273,7 +28218,7 @@
         <v>202</v>
       </c>
       <c r="E153" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G153" s="27" t="s">
         <v>300</v>
@@ -28283,7 +28228,7 @@
       </c>
       <c r="I153" s="27"/>
       <c r="J153" s="27" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L153" s="4" t="s">
         <v>202</v>
@@ -28292,7 +28237,7 @@
         <v>203</v>
       </c>
       <c r="O153" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="Q153" s="27" t="s">
         <v>134</v>
@@ -28302,7 +28247,7 @@
       </c>
       <c r="S153" s="27"/>
       <c r="T153" s="27" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="154" spans="1:20">
@@ -28316,7 +28261,7 @@
         <v>333</v>
       </c>
       <c r="E154" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="G154" s="27" t="s">
         <v>110</v>
@@ -28326,7 +28271,7 @@
       </c>
       <c r="I154" s="27"/>
       <c r="J154" s="27" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L154" s="6" t="s">
         <v>333</v>
@@ -28335,7 +28280,7 @@
         <v>334</v>
       </c>
       <c r="O154" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="Q154" s="27" t="s">
         <v>111</v>
@@ -28345,7 +28290,7 @@
       </c>
       <c r="S154" s="27"/>
       <c r="T154" s="27" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
     </row>
     <row r="155" spans="1:20">
@@ -28359,7 +28304,7 @@
         <v>200</v>
       </c>
       <c r="E155" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G155" s="27" t="s">
         <v>301</v>
@@ -28369,7 +28314,7 @@
       </c>
       <c r="I155" s="27"/>
       <c r="J155" s="27" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L155" s="4" t="s">
         <v>200</v>
@@ -28378,7 +28323,7 @@
         <v>201</v>
       </c>
       <c r="O155" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="Q155" s="27" t="s">
         <v>302</v>
@@ -28388,7 +28333,7 @@
       </c>
       <c r="S155" s="27"/>
       <c r="T155" s="27" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="156" spans="1:20">
@@ -28402,7 +28347,7 @@
         <v>205</v>
       </c>
       <c r="E156" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G156" s="27" t="s">
         <v>290</v>
@@ -28412,7 +28357,7 @@
       </c>
       <c r="I156" s="27"/>
       <c r="J156" s="27" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L156" s="4" t="s">
         <v>205</v>
@@ -28421,7 +28366,7 @@
         <v>204</v>
       </c>
       <c r="O156" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="Q156" s="27" t="s">
         <v>291</v>
@@ -28431,7 +28376,7 @@
       </c>
       <c r="S156" s="27"/>
       <c r="T156" s="27" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="157" spans="1:20">
@@ -28445,7 +28390,7 @@
         <v>207</v>
       </c>
       <c r="E157" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G157" s="17" t="s">
         <v>292</v>
@@ -28455,7 +28400,7 @@
       </c>
       <c r="I157" s="27"/>
       <c r="J157" s="27" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L157" s="4" t="s">
         <v>207</v>
@@ -28464,7 +28409,7 @@
         <v>206</v>
       </c>
       <c r="O157" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="Q157" s="27" t="s">
         <v>293</v>
@@ -28474,7 +28419,7 @@
       </c>
       <c r="S157" s="27"/>
       <c r="T157" s="27" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
     </row>
     <row r="158" spans="1:20">
@@ -28488,7 +28433,7 @@
         <v>209</v>
       </c>
       <c r="E158" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="G158" s="27" t="s">
         <v>294</v>
@@ -28498,7 +28443,7 @@
       </c>
       <c r="I158" s="27"/>
       <c r="J158" s="27" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L158" s="4" t="s">
         <v>209</v>
@@ -28507,7 +28452,7 @@
         <v>208</v>
       </c>
       <c r="O158" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="Q158" s="27" t="s">
         <v>295</v>
@@ -28517,7 +28462,7 @@
       </c>
       <c r="S158" s="27"/>
       <c r="T158" s="27" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="159" spans="1:20">
@@ -28531,7 +28476,7 @@
         <v>335</v>
       </c>
       <c r="E159" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G159" s="27" t="s">
         <v>112</v>
@@ -28541,7 +28486,7 @@
       </c>
       <c r="I159" s="27"/>
       <c r="J159" s="27" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L159" s="27" t="s">
         <v>335</v>
@@ -28550,7 +28495,7 @@
         <v>339</v>
       </c>
       <c r="O159" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="Q159" s="27" t="s">
         <v>113</v>
@@ -28560,7 +28505,7 @@
       </c>
       <c r="S159" s="27"/>
       <c r="T159" s="27" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="160" spans="1:20">
@@ -28574,7 +28519,7 @@
         <v>307</v>
       </c>
       <c r="E160" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G160" s="27" t="s">
         <v>114</v>
@@ -28584,7 +28529,7 @@
       </c>
       <c r="I160" s="27"/>
       <c r="J160" s="27" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L160" s="17" t="s">
         <v>307</v>
@@ -28593,7 +28538,7 @@
         <v>338</v>
       </c>
       <c r="O160" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="Q160" s="27" t="s">
         <v>115</v>
@@ -28603,7 +28548,7 @@
       </c>
       <c r="S160" s="27"/>
       <c r="T160" s="27" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
     </row>
     <row r="161" spans="1:20">
@@ -28617,7 +28562,7 @@
         <v>211</v>
       </c>
       <c r="E161" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G161" s="27" t="s">
         <v>116</v>
@@ -28627,7 +28572,7 @@
       </c>
       <c r="I161" s="27"/>
       <c r="J161" s="27" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L161" s="4" t="s">
         <v>211</v>
@@ -28636,7 +28581,7 @@
         <v>210</v>
       </c>
       <c r="O161" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="Q161" s="27" t="s">
         <v>117</v>
@@ -28646,7 +28591,7 @@
       </c>
       <c r="S161" s="27"/>
       <c r="T161" s="27" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
